--- a/parameters/ModelG_Siltuximab_Params.xlsx
+++ b/parameters/ModelG_Siltuximab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5D395-9CB7-6146-9EBA-139B68337460}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0601239-BCA9-D146-80EE-6A798DEB6687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="540" windowWidth="28720" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -45,17 +45,20 @@
     <definedName name="keDM3">#REF!</definedName>
     <definedName name="keDMtot">#REF!</definedName>
     <definedName name="keDS1">#REF!</definedName>
-    <definedName name="keDT">#REF!</definedName>
+    <definedName name="keDT">Sheet1!$F$19</definedName>
     <definedName name="keL">#REF!</definedName>
     <definedName name="keM">#REF!</definedName>
     <definedName name="keM3_">#REF!</definedName>
     <definedName name="keT">#REF!</definedName>
+    <definedName name="keTL">Sheet1!$F$27</definedName>
     <definedName name="keTs">#REF!</definedName>
     <definedName name="Km">#REF!</definedName>
     <definedName name="koff">#REF!</definedName>
-    <definedName name="koff_DT">#REF!</definedName>
-    <definedName name="koff_TL">#REF!</definedName>
+    <definedName name="koff_DT">Sheet1!$F$23</definedName>
+    <definedName name="koff_TL">Sheet1!$F$31</definedName>
     <definedName name="kon">#REF!</definedName>
+    <definedName name="kon_DT">Sheet1!$F$24</definedName>
+    <definedName name="kon_TL">Sheet1!$F$32</definedName>
     <definedName name="kshed">#REF!</definedName>
     <definedName name="kshedDM1">#REF!</definedName>
     <definedName name="kshedDM3">#REF!</definedName>
@@ -119,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
   <si>
     <t>Parameter</t>
   </si>
@@ -217,9 +220,6 @@
     <t>MWD</t>
   </si>
   <si>
-    <t>google search</t>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -247,18 +247,12 @@
     <t>keT</t>
   </si>
   <si>
-    <t>Imax</t>
-  </si>
-  <si>
     <t>ug/(ml*d)</t>
   </si>
   <si>
     <t>ug/ml</t>
   </si>
   <si>
-    <t>ng/(ml*d)</t>
-  </si>
-  <si>
     <t>k12</t>
   </si>
   <si>
@@ -268,15 +262,9 @@
     <t>Elimination Rate</t>
   </si>
   <si>
-    <t>ksyn_ngml</t>
-  </si>
-  <si>
     <t>Synthesis Rate</t>
   </si>
   <si>
-    <t>Kd_ugml</t>
-  </si>
-  <si>
     <t>Kd_DT</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>Turnover</t>
   </si>
   <si>
-    <t>"Inhibition"</t>
-  </si>
-  <si>
     <t>MWT</t>
   </si>
   <si>
@@ -373,18 +358,9 @@
     <t/>
   </si>
   <si>
-    <t>=Vm*1000/MWD</t>
-  </si>
-  <si>
-    <t>=Km*1000/MWD</t>
-  </si>
-  <si>
     <t>=(1-Imax)*keTs</t>
   </si>
   <si>
-    <t>=kd_ugml/MWTs*1000</t>
-  </si>
-  <si>
     <t>=koff_DT/Kd_DT</t>
   </si>
   <si>
@@ -406,9 +382,6 @@
     <t>T0*keT</t>
   </si>
   <si>
-    <t>ksynT*MWT</t>
-  </si>
-  <si>
     <t>Puchalski  - Table 2 DOI 10.1007/s00280-015-2720-0</t>
   </si>
   <si>
@@ -421,15 +394,9 @@
     <t>keD*V1</t>
   </si>
   <si>
-    <t>k12*V1</t>
-  </si>
-  <si>
     <t>Q/k21</t>
   </si>
   <si>
-    <t>lit</t>
-  </si>
-  <si>
     <t>Stein17 - Table 1 doi:10.1002/psp4.12169      *** V. high binding affinity, chim</t>
   </si>
   <si>
@@ -439,9 +406,6 @@
     <t>Clin Exp Immunol. 1988 Feb;71(2):314-9. PMID: 3280187</t>
   </si>
   <si>
-    <t>=(Kd_DT*MWT)/1000</t>
-  </si>
-  <si>
     <t>Gibiansky12 - Table 2 doi 10.1007/s10928-011-9227-z</t>
   </si>
   <si>
@@ -449,13 +413,22 @@
   </si>
   <si>
     <t>https://www.pharmacodia.com/yaodu/html/v1/biologics/914101ec47c52b48a7b6ccc6f5a76f1f.html</t>
+  </si>
+  <si>
+    <t>Equilibration Constant</t>
+  </si>
+  <si>
+    <t>Kss_DT</t>
+  </si>
+  <si>
+    <t>Kss_TL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -514,8 +487,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +549,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,7 +583,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -626,7 +622,188 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
@@ -967,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="92" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,7 +1155,7 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="70" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,13 +1185,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1025,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -1039,11 +1216,11 @@
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>79</v>
+      <c r="H2" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1055,13 +1232,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1069,11 +1246,11 @@
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>79</v>
+      <c r="H3" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J3" s="6"/>
     </row>
@@ -1085,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
@@ -1100,11 +1277,11 @@
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -1116,13 +1293,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8">
         <v>3.4860000000000002</v>
@@ -1130,14 +1307,11 @@
       <c r="G5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>98</v>
+      <c r="H5" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K5" s="8"/>
     </row>
@@ -1149,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -1164,11 +1338,11 @@
       <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1180,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8">
         <f>F6/F10</f>
@@ -1195,11 +1369,11 @@
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1211,13 +1385,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="8">
         <v>5.8400000000000001E-2</v>
@@ -1225,12 +1399,12 @@
       <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1241,24 +1415,24 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8">
         <v>0.13900000000000001</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1269,24 +1443,24 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8">
         <v>0.187</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1297,25 +1471,25 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -1327,25 +1501,25 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -1357,13 +1531,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1371,12 +1545,10 @@
       <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="H13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1387,13 +1559,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1401,12 +1573,10 @@
       <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="H14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1414,10 +1584,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
@@ -1431,14 +1601,14 @@
       <c r="G15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>32</v>
+      <c r="H15" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1446,16 +1616,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8">
         <v>21</v>
@@ -1463,590 +1633,625 @@
       <c r="G16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F17" s="8">
-        <f>F18*F16</f>
-        <v>0.10080000000000001</v>
+        <f>F20*F18</f>
+        <v>4.8000000000000004E-3</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8">
-        <f>F22*F19</f>
-        <v>4.8000000000000004E-3</v>
+        <v>40</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8">
-        <v>40</v>
+        <v>0.03</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="12">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8">
-        <f>1-(F21/F19)</f>
-        <v>0.99924999999999997</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="F20" s="12">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="14">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="8">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="F23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="14">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="12">
-        <f>(F24*F16)/1000</f>
-        <v>4.1999999999999996E-4</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
-        <v>87</v>
+      <c r="H23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="8">
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F25" s="8">
-        <v>0.2</v>
+        <f>47.8/F33</f>
+        <v>0.91923076923076918</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>1.26</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8">
-        <f>47.8/F34</f>
-        <v>0.91923076923076918</v>
+        <v>1.26</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F28" s="8">
-        <v>1.26</v>
+        <f>F25/F26</f>
+        <v>0.72954822954822951</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>107</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F29" s="8">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F30" s="8">
-        <f>F27/F28</f>
-        <v>0.72954822954822951</v>
+        <f>(koff_TL+keTL)/kon_TL</f>
+        <v>1.252</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="I30" s="8"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F31" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F32" s="8">
         <v>5</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F33" s="8">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>16</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="8">
-        <v>52</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="H20:H33 H2:H18">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H33 H2:H18">
+    <cfRule type="containsText" dxfId="16" priority="-1" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H33 H2:H18">
+    <cfRule type="containsText" dxfId="14" priority="-1" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="-1" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H33 H2:H18">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="5" priority="-1" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="-1" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="-1" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="-1" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="0" priority="-1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J15" r:id="rId1" xr:uid="{22AE4FB0-4CA0-42F3-A9C7-44E1EC9503F9}"/>
   </hyperlinks>

--- a/parameters/ModelG_Siltuximab_Params.xlsx
+++ b/parameters/ModelG_Siltuximab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0601239-BCA9-D146-80EE-6A798DEB6687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B9730-B1A3-7F45-9C4D-25AF4508E68E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="540" windowWidth="28720" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13160" yWindow="1180" windowWidth="28720" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <definedName name="ABCdrug">#REF!</definedName>
     <definedName name="ABCsol">#REF!</definedName>
     <definedName name="Cavg">#REF!</definedName>
-    <definedName name="CL">#REF!</definedName>
+    <definedName name="CL">Sheet1!$F$4</definedName>
     <definedName name="CL_">#REF!</definedName>
     <definedName name="Dose">#REF!</definedName>
     <definedName name="eps">#REF!</definedName>
+    <definedName name="F">Sheet1!$F$2</definedName>
     <definedName name="Imax">#REF!</definedName>
+    <definedName name="k12_">Sheet1!$F$9</definedName>
     <definedName name="k12D">#REF!</definedName>
     <definedName name="k13D">#REF!</definedName>
     <definedName name="k13d_prop">#REF!</definedName>
@@ -31,56 +33,64 @@
     <definedName name="k13DS">#REF!</definedName>
     <definedName name="k13M">#REF!</definedName>
     <definedName name="k13S">#REF!</definedName>
+    <definedName name="k21_">Sheet1!$F$10</definedName>
     <definedName name="k21D">#REF!</definedName>
     <definedName name="k31D">#REF!</definedName>
     <definedName name="k31D_prop">#REF!</definedName>
     <definedName name="k31D_thurber">#REF!</definedName>
     <definedName name="k31M">#REF!</definedName>
+    <definedName name="ka">Sheet1!$F$3</definedName>
     <definedName name="Kd">#REF!</definedName>
-    <definedName name="Kd_DT">#REF!</definedName>
-    <definedName name="Kd_TL">#REF!</definedName>
+    <definedName name="Kd_DT">Sheet1!$F$22</definedName>
+    <definedName name="Kd_TL">Sheet1!$F$29</definedName>
     <definedName name="kd_ugml">#REF!</definedName>
-    <definedName name="keD">#REF!</definedName>
+    <definedName name="keD">Sheet1!$F$8</definedName>
     <definedName name="keD3_">#REF!</definedName>
     <definedName name="keDM3">#REF!</definedName>
     <definedName name="keDMtot">#REF!</definedName>
     <definedName name="keDS1">#REF!</definedName>
-    <definedName name="keDT">Sheet1!$F$19</definedName>
-    <definedName name="keL">#REF!</definedName>
+    <definedName name="keDT">Sheet1!$F$18</definedName>
+    <definedName name="keL">Sheet1!$F$27</definedName>
     <definedName name="keM">#REF!</definedName>
     <definedName name="keM3_">#REF!</definedName>
-    <definedName name="keT">#REF!</definedName>
-    <definedName name="keTL">Sheet1!$F$27</definedName>
+    <definedName name="keT">Sheet1!$F$17</definedName>
+    <definedName name="keTL">Sheet1!$F$28</definedName>
     <definedName name="keTs">#REF!</definedName>
-    <definedName name="Km">#REF!</definedName>
+    <definedName name="Km">Sheet1!$F$12</definedName>
     <definedName name="koff">#REF!</definedName>
-    <definedName name="koff_DT">Sheet1!$F$23</definedName>
+    <definedName name="koff_DT">Sheet1!$F$24</definedName>
     <definedName name="koff_TL">Sheet1!$F$31</definedName>
     <definedName name="kon">#REF!</definedName>
-    <definedName name="kon_DT">Sheet1!$F$24</definedName>
+    <definedName name="kon_DT">Sheet1!$F$25</definedName>
     <definedName name="kon_TL">Sheet1!$F$32</definedName>
     <definedName name="kshed">#REF!</definedName>
     <definedName name="kshedDM1">#REF!</definedName>
     <definedName name="kshedDM3">#REF!</definedName>
     <definedName name="kshedM1">#REF!</definedName>
     <definedName name="kshedM3">#REF!</definedName>
+    <definedName name="Kss_DT">Sheet1!$F$23</definedName>
+    <definedName name="Kss_TL">Sheet1!$F$30</definedName>
     <definedName name="ksyn_ngml">#REF!</definedName>
-    <definedName name="ksynL">#REF!</definedName>
+    <definedName name="ksynL">Sheet1!$F$26</definedName>
+    <definedName name="ksynT">Sheet1!$F$16</definedName>
     <definedName name="ksynTs">#REF!</definedName>
     <definedName name="ksynTs_ngml">#REF!</definedName>
-    <definedName name="L0">#REF!</definedName>
+    <definedName name="L0">Sheet1!$F$21</definedName>
     <definedName name="M10_">#REF!</definedName>
     <definedName name="M30_">#REF!</definedName>
     <definedName name="Mfrac">#REF!</definedName>
-    <definedName name="MWD">#REF!</definedName>
+    <definedName name="MWD">Sheet1!$F$13</definedName>
+    <definedName name="MWL">Sheet1!$F$15</definedName>
     <definedName name="MWLm">#REF!</definedName>
     <definedName name="MWLs">#REF!</definedName>
     <definedName name="MWS">#REF!</definedName>
+    <definedName name="MWT">Sheet1!$F$14</definedName>
     <definedName name="MWTm">#REF!</definedName>
     <definedName name="MWTs">#REF!</definedName>
     <definedName name="Npercell">#REF!</definedName>
     <definedName name="P">#REF!</definedName>
-    <definedName name="Q">#REF!</definedName>
+    <definedName name="Parameter">Sheet1!$F$1</definedName>
+    <definedName name="Q">Sheet1!$F$6</definedName>
     <definedName name="Q_">#REF!</definedName>
     <definedName name="Rcap">#REF!</definedName>
     <definedName name="Rho">#REF!</definedName>
@@ -88,10 +98,12 @@
     <definedName name="Rkrogh">#REF!</definedName>
     <definedName name="S10_">#REF!</definedName>
     <definedName name="S1acc">#REF!</definedName>
+    <definedName name="T0">Sheet1!$F$19</definedName>
     <definedName name="Tau">#REF!</definedName>
     <definedName name="Tfrac">#REF!</definedName>
-    <definedName name="V1_">#REF!</definedName>
-    <definedName name="V2_">#REF!</definedName>
+    <definedName name="TL0">Sheet1!$F$20</definedName>
+    <definedName name="V1_">Sheet1!$F$5</definedName>
+    <definedName name="V2_">Sheet1!$F$7</definedName>
     <definedName name="Vc">#REF!</definedName>
     <definedName name="VcDS">#REF!</definedName>
     <definedName name="VcS">#REF!</definedName>
@@ -99,7 +111,7 @@
     <definedName name="VD2_">#REF!</definedName>
     <definedName name="VD3_">#REF!</definedName>
     <definedName name="VDS1_">#REF!</definedName>
-    <definedName name="Vm">#REF!</definedName>
+    <definedName name="Vm">Sheet1!$F$11</definedName>
     <definedName name="Vp">#REF!</definedName>
     <definedName name="VS1_">#REF!</definedName>
     <definedName name="Vtum">#REF!</definedName>
@@ -122,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>Parameter</t>
   </si>
@@ -247,12 +259,6 @@
     <t>keT</t>
   </si>
   <si>
-    <t>ug/(ml*d)</t>
-  </si>
-  <si>
-    <t>ug/ml</t>
-  </si>
-  <si>
     <t>k12</t>
   </si>
   <si>
@@ -328,9 +334,6 @@
     <t>ksynL</t>
   </si>
   <si>
-    <t>Stein17 - Table 1 doi:10.1002/psp4.12169</t>
-  </si>
-  <si>
     <t>Ward96 - doi: 10.1074/jbc.271.33.20138</t>
   </si>
   <si>
@@ -349,54 +352,18 @@
     <t>Subcut. Absorption</t>
   </si>
   <si>
-    <t>Vm_ugml</t>
-  </si>
-  <si>
-    <t>Km_ugml</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>=(1-Imax)*keTs</t>
-  </si>
-  <si>
-    <t>=koff_DT/Kd_DT</t>
-  </si>
-  <si>
-    <t>=koff_TL/Kd_TL</t>
-  </si>
-  <si>
     <t>Target (IL6)</t>
   </si>
   <si>
     <t>Soluble Ligand (IL-6R)</t>
   </si>
   <si>
-    <t>ksyn_ngml/MWTs</t>
-  </si>
-  <si>
-    <t>ksynL/keL</t>
-  </si>
-  <si>
-    <t>T0*keT</t>
-  </si>
-  <si>
     <t>Puchalski  - Table 2 DOI 10.1007/s00280-015-2720-0</t>
   </si>
   <si>
     <t>literature &amp; calc</t>
   </si>
   <si>
-    <t>avg human: 60kg, ml/kg: 58.1</t>
-  </si>
-  <si>
-    <t>keD*V1</t>
-  </si>
-  <si>
-    <t>Q/k21</t>
-  </si>
-  <si>
     <t>Stein17 - Table 1 doi:10.1002/psp4.12169      *** V. high binding affinity, chim</t>
   </si>
   <si>
@@ -406,9 +373,6 @@
     <t>Clin Exp Immunol. 1988 Feb;71(2):314-9. PMID: 3280187</t>
   </si>
   <si>
-    <t>Gibiansky12 - Table 2 doi 10.1007/s10928-011-9227-z</t>
-  </si>
-  <si>
     <t>Drug (Siltuximab)</t>
   </si>
   <si>
@@ -422,13 +386,22 @@
   </si>
   <si>
     <t>Kss_TL</t>
+  </si>
+  <si>
+    <t>TL0</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>From Tocilizumab Table (computed from Gibianksy12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,14 +460,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,12 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,14 +547,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -622,97 +577,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="4" tint="-0.499984740745262"/>
@@ -1144,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,6 +1020,7 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="70" customWidth="1"/>
   </cols>
@@ -1191,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,13 +1068,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -1217,10 +1083,11 @@
         <v>3</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="I2" s="16" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
+        <v/>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1232,13 +1099,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1247,22 +1114,23 @@
         <v>4</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="I3" s="16" t="str">
+        <f t="shared" ref="I3:I38" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F3),"")</f>
+        <v/>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>20</v>
@@ -1271,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8">
-        <f>F8*F5</f>
+        <f>keD*V1_</f>
         <v>0.20358240000000002</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1280,20 +1148,21 @@
       <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>89</v>
+      <c r="I4" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=keD*V1_</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
@@ -1308,22 +1177,26 @@
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="I5" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J5" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -1332,8 +1205,8 @@
         <v>12</v>
       </c>
       <c r="F6" s="8">
-        <f>F9*F5</f>
-        <v>0.4845540000000001</v>
+        <f>K12*V1</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>11</v>
@@ -1341,20 +1214,21 @@
       <c r="H6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>88</v>
+      <c r="I6" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=K12*V1</v>
       </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>23</v>
@@ -1363,8 +1237,8 @@
         <v>37</v>
       </c>
       <c r="F7" s="8">
-        <f>F6/F10</f>
-        <v>2.5911978609625672</v>
+        <f ca="1">V2_/k21_</f>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>2</v>
@@ -1372,23 +1246,24 @@
       <c r="H7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>90</v>
+      <c r="I7" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=V2_/k21_</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>35</v>
@@ -1402,26 +1277,29 @@
       <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J8" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8">
         <v>0.13900000000000001</v>
@@ -1430,26 +1308,29 @@
       <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J9" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="8">
         <v>0.187</v>
@@ -1458,9 +1339,12 @@
       <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J10" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1471,25 +1355,26 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -1501,102 +1386,113 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8">
+        <v>145</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I13" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
+      <c r="F14" s="8">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="I14" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>95</v>
+      <c r="C15" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>29</v>
@@ -1604,96 +1500,96 @@
       <c r="H15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>96</v>
+      <c r="I15" s="16" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F15),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="8">
-        <v>21</v>
+        <f>T0*(kon_TL*L0+keT)-koff_TL*TL0</f>
+        <v>1.5880000000000002E-3</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=T0*(kon_TL*L0+keT)-koff_TL*TL0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="8">
-        <f>F20*F18</f>
-        <v>4.8000000000000004E-3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>19</v>
-      </c>
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F18" s="8">
-        <v>40</v>
+        <v>0.03</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>4</v>
@@ -1701,96 +1597,98 @@
       <c r="H18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>77</v>
+      <c r="I18" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J18" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>4</v>
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>22</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="I19" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1.2E-4</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="E20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="14">
-        <v>2E-3</v>
+        <v>18</v>
+      </c>
+      <c r="I20" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>24</v>
+      <c r="A21" s="5">
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F21" s="8">
-        <v>0.02</v>
+        <v>0.73</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>15</v>
@@ -1798,182 +1696,192 @@
       <c r="H21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="12"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>24.5</v>
+      <c r="A22" s="5">
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8">
         <f>(koff_DT+keDT)/kon_DT</f>
         <v>2.3E-2</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>25</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="I23" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_DT+keDT)/kon_DT</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>26</v>
+      <c r="A24" s="5">
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="8">
         <v>10</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>27</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="8">
-        <f>47.8/F33</f>
-        <v>0.91923076923076918</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>83</v>
+      <c r="I25" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>28</v>
+      <c r="A26" s="5">
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F26" s="8">
-        <v>1.26</v>
+        <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
+        <v>0.92018799999999989</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=L0*(kon_TL*T0+keL)-koff_TL*TL0</v>
+      </c>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>29</v>
+      <c r="A27" s="5">
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="8">
         <v>1.26</v>
@@ -1981,60 +1889,61 @@
       <c r="G27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="8">
+        <v>40</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>30</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="8">
-        <f>F25/F26</f>
-        <v>0.72954822954822951</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>84</v>
+      <c r="I28" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>31</v>
+      <c r="A29" s="5">
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
@@ -2045,32 +1954,33 @@
       <c r="H29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>77</v>
+      <c r="I29" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J29" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>31.5</v>
+      <c r="A30" s="5">
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F30" s="8">
         <f>(koff_TL+keTL)/kon_TL</f>
-        <v>1.252</v>
+        <v>9</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
@@ -2078,24 +1988,27 @@
       <c r="H30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_TL+keTL)/kon_TL</v>
+      </c>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>32</v>
+      <c r="A31" s="5">
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="8">
         <v>5</v>
@@ -2106,28 +2019,29 @@
       <c r="H31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>77</v>
+      <c r="I31" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J31" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>33</v>
+      <c r="A32" s="5">
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" s="8">
         <v>5</v>
@@ -2138,122 +2052,86 @@
       <c r="H32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>80</v>
+      <c r="I32" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>16</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="8">
-        <v>52</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:9" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" s="3"/>
+      <c r="I38" s="16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H20:H33 H2:H18">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H2:H32">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H33 H2:H18">
-    <cfRule type="containsText" dxfId="16" priority="-1" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H2:H32">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H33 H2:H18">
-    <cfRule type="containsText" dxfId="14" priority="-1" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H2:H32">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="-1" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H33 H2:H18">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H2:H32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="5" priority="-1" operator="containsText" text="not used">
-      <formula>NOT(ISERROR(SEARCH("not used",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="-1" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="-1" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="-1" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
-      <formula>NOT(ISERROR(SEARCH("check",H19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="0" priority="-1" operator="containsText" text="internal data">
-      <formula>NOT(ISERROR(SEARCH("internal data",H19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" xr:uid="{22AE4FB0-4CA0-42F3-A9C7-44E1EC9503F9}"/>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{22AE4FB0-4CA0-42F3-A9C7-44E1EC9503F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameters/ModelG_Siltuximab_Params.xlsx
+++ b/parameters/ModelG_Siltuximab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B9730-B1A3-7F45-9C4D-25AF4508E68E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E17FAE-3212-EC46-A08D-66387265B328}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="1180" windowWidth="28720" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="1180" windowWidth="28720" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -401,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,6 +460,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -510,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +555,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1568,7 +1578,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="17" t="s">
         <v>76</v>
       </c>
     </row>

--- a/parameters/ModelG_Siltuximab_Params.xlsx
+++ b/parameters/ModelG_Siltuximab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E17FAE-3212-EC46-A08D-66387265B328}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5482D-5A86-6C4F-93AD-91D7D95CB7A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="1180" windowWidth="28720" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
   <si>
     <t>Parameter</t>
   </si>
@@ -394,7 +394,13 @@
     <t>Complex</t>
   </si>
   <si>
-    <t>From Tocilizumab Table (computed from Gibianksy12)</t>
+    <t>From target calculation (T0) from ModelG_Tocilizumab file</t>
+  </si>
+  <si>
+    <t>From target calculation (keT) from ModelG_Tocilizumab file</t>
+  </si>
+  <si>
+    <t>From target calculation (keTL) from ModelG_Tocilizumab file</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1542,7 @@
       </c>
       <c r="F16" s="8">
         <f>T0*(kon_TL*L0+keT)-koff_TL*TL0</f>
-        <v>1.5880000000000002E-3</v>
+        <v>1.3900000000000002E-3</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>7</v>
@@ -1698,7 +1704,7 @@
         <v>61</v>
       </c>
       <c r="F21" s="8">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>15</v>
@@ -1863,7 +1869,7 @@
       </c>
       <c r="F26" s="8">
         <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
-        <v>0.92018799999999989</v>
+        <v>8.0001899999999999</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
@@ -1894,19 +1900,21 @@
         <v>59</v>
       </c>
       <c r="F27" s="8">
-        <v>1.26</v>
+        <v>20</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -1925,7 +1933,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>4</v>
@@ -1937,7 +1945,9 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
@@ -1990,7 +2000,7 @@
       </c>
       <c r="F30" s="8">
         <f>(koff_TL+keTL)/kon_TL</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
@@ -2054,6 +2064,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="8">
+        <f>koff_TL/Kd_TL</f>
         <v>5</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -2064,7 +2075,7 @@
       </c>
       <c r="I32" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>=koff_TL/Kd_TL</v>
       </c>
       <c r="J32" s="9"/>
     </row>

--- a/parameters/ModelG_Siltuximab_Params.xlsx
+++ b/parameters/ModelG_Siltuximab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5482D-5A86-6C4F-93AD-91D7D95CB7A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05672BAB-D1F7-2647-9165-D2847AD3D632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="1180" windowWidth="28720" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>Parameter</t>
   </si>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1320,9 @@
       <c r="F9" s="8">
         <v>0.13900000000000001</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1351,7 +1353,9 @@
       <c r="F10" s="8">
         <v>0.187</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1873,7 @@
       </c>
       <c r="F26" s="8">
         <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
-        <v>8.0001899999999999</v>
+        <v>2.4001900000000003</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
@@ -1900,7 +1904,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>4</v>
@@ -1933,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>4</v>
@@ -2000,7 +2004,7 @@
       </c>
       <c r="F30" s="8">
         <f>(koff_TL+keTL)/kon_TL</f>
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
